--- a/Data/Transitions/19181924Translation.xlsx
+++ b/Data/Transitions/19181924Translation.xlsx
@@ -28,7 +28,7 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
+    <t>{486.0: 0.23351728144060413}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.477532649597875}</t>
+    <t>{86.0: 0.4752871433864394}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.9199943954042314}</t>
+    <t>{98.0: 0.9189265937810592}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -253,7 +253,7 @@
     <t>{107.0: 1.0}</t>
   </si>
   <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008435213853451006}</t>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008435255909037489}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -271,7 +271,7 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
+    <t>{142.0: 0.7317831753554502}</t>
   </si>
   <si>
     <t>{144.0: 0.9914900449582531}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.20598512462143895}</t>
+    <t>{174.0: 1.0, 502.0: 0.20775329690244515}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,7 +349,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -409,7 +409,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.25196850393700787}</t>
+    <t>{897.0: 0.25139664804469275}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -478,13 +478,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6901002596113491}</t>
+    <t>{246.0: 0.6903288566447952}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -493,13 +496,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
+    <t>{249.0: 0.9929308797127468}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -538,13 +541,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8354978354978355, 843.0: 0.05275609848056404}</t>
+    <t>{264.0: 0.832411620581029, 843.0: 0.05373114264778395}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.04678007418275025, 887.0: 0.1831615433731643}</t>
+    <t>{834.0: 0.04740869776067081, 887.0: 0.18437241759250758}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -565,7 +568,7 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
+    <t>{686.0: 0.39461948541510167}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
@@ -595,7 +598,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -604,7 +607,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
@@ -631,7 +634,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -694,13 +697,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.08000560459576853}</t>
+    <t>{398.0: 1.0, 98.0: 0.0810734062189408}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9902515215166694}</t>
+    <t>{404.0: 0.9902331102957047}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -805,7 +805,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -817,7 +817,7 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145}</t>
+    <t>{476.0: 0.8402999583391195}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -859,7 +859,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.7696934975651676}</t>
+    <t>{486.0: 0.7664827185593959}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,19 +880,19 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.414761168472352e-05}</t>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.410771665985799e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -901,13 +901,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.22250535389953646}</t>
+    <t>{277.0: 0.22161110692129385}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.794014875378561}</t>
+    <t>{502.0: 0.7922467030975547}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -940,13 +940,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
+    <t>{534.0: 0.8960549645390071}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571}</t>
+    <t>{604.0: 0.8534475447375116}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1018,7 +1018,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8768705547652916}</t>
+    <t>{580.0: 0.8765544780376497}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1033,7 +1033,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1084,7 +1084,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1123,7 +1123,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1165,7 +1165,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1228,10 +1228,10 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.522467350402125, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.06778087279480037}</t>
+    <t>{86.0: 0.5247128566135606, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.06782585611892752}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1270,10 +1270,10 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{730.0: 0.9525794684731631}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
@@ -1303,7 +1303,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 789.0: 0.001348799568384138, 246.0: 0.004715576703282075}</t>
+    <t>{741.0: 1.0, 789.0: 0.0013518385003604902, 246.0: 0.004712142366176076}</t>
   </si>
   <si>
     <t>{742.0: 1.0}</t>
@@ -1324,7 +1324,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1333,7 +1333,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.1231294452347084}</t>
+    <t>{580.0: 0.12344552196235026}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1357,10 +1357,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.0015321154979375368}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9984678845020625}</t>
+    <t>{760.0: 1.0, 761.0: 0.0015297717109908214}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9984702282890092}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.935766112186006e-07}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.914160496020589e-07}</t>
   </si>
   <si>
     <t>{773.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9490145101449318}</t>
+    <t>{782.0: 0.9488732196596931}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.05191791590989184}</t>
+    <t>{277.0: 0.05281216288813442}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158, 246.0: 0.022602246957110633}</t>
+    <t>{789.0: 0.9986481614996395, 246.0: 0.02258578582408533}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{837.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9472439015194359, 264.0: 0.1645021645021645}</t>
+    <t>{843.0: 0.9462688573522161, 264.0: 0.16758837941897095}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9322191272051996}</t>
+    <t>{857.0: 0.9321741438810724}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8168384566268357}</t>
+    <t>{887.0: 0.8156275824074924}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -1573,10 +1573,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7226013414989793}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7232309124767226}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1585,10 +1585,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.10324494606396221, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.10356293822099828, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1615,13 +1615,13 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.002039538364045994}</t>
+    <t>{921.0: 1.0, 686.0: 0.00202993562456328}</t>
   </si>
   <si>
     <t>{922.0: 0.9818417639429312}</t>
@@ -1642,10 +1642,10 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.27888247642727526}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6178725775087625}</t>
+    <t>{929.0: 1.0, 930.0: 0.28714526475970836}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6092917970192934}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1669,7 +1669,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{938.0: 1.0, 497.0: 0.03279947345326898, 731.0: 0.14154999448792857}</t>
+    <t>{938.0: 1.0, 497.0: 0.03292407641909376, 731.0: 0.11631488359452849}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
@@ -1717,10 +1717,10 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1753,7 +1753,7 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1774,10 +1774,10 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 502.0: 0.47303499899021645}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026067}</t>
+    <t>{174.0: 0.529134601041196, 502.0: 0.47086539895880397}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9924042536179738, 14.0: 0.007595746382026066}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{251.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.9789285950194861, 843.0: 0.021071404980513905}</t>
+    <t>{264.0: 0.978928595019486, 843.0: 0.021071404980513905}</t>
   </si>
   <si>
     <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233086}</t>
@@ -1813,7 +1813,7 @@
     <t>{289.0: 0.9615709459459459, 730.0: 0.03842905405405406}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1876,7 +1876,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.931297709923664, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.9320388349514563, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
@@ -1885,7 +1885,7 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
   </si>
   <si>
     <t>{298.0: 0.7904879048790487, 857.0: 0.2095120951209512}</t>
@@ -1903,7 +1903,7 @@
     <t>{741.0: 0.9787142989318187, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
+    <t>{746.0: 0.9899854627685347, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
     <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642228}</t>
@@ -1942,7 +1942,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022411, 930.0: 0.8573483060191543, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247715, 930.0: 0.8574692422575381, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{921.0: 0.993611040122668, 686.0: 0.006388959877331971}</t>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4026,29 +4026,29 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>590</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4059,51 +4059,51 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>591</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>591</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>592</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4224,51 +4224,51 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>593</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>594</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4323,51 +4323,51 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>595</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>595</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>596</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>596</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4433,29 +4433,29 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>597</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4466,29 +4466,29 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>598</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4499,51 +4499,51 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>599</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>577</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4565,29 +4565,29 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>600</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>206</v>
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4653,29 +4653,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>601</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4686,29 +4686,29 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>602</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
